--- a/biology/Botanique/Crocosmia/Crocosmia.xlsx
+++ b/biology/Botanique/Crocosmia/Crocosmia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocosmia est un genre de plantes herbacées de la famille des Iridaceae. Il contient 13 espèces de différentes couleurs .[réf. nécessaire]
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Crocosmia vient du grec krokos=safran et osme=odeur, soit odeur de safran.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crocosmia peuvent être persistants ou caducs. Ils poussent à partir de cormes souterrains. 
 Les feuilles alternes sont caulinaires et distiques. Les feuilles sont linéaires ou lancéolées.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crocosmias sont cultivés dans le monde entier, et plus de 400 cultivars ont été produits. Certains hybrides sont devenus des espèces envahissantes en particulier C. ×crocosmiiflora qui sont envahissants au Royaume-Uni, en Nouvelle-Zélande, dans le Pacifique, en Amérique du Nord, sur l'île d'Ouessant et probablement ailleurs.
 Les Crocosmia sont rustiques dans les régions tempérées. Ils peuvent se propager à travers la division des cormes au printemps.
@@ -609,7 +627,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Crocosmia ambongensis (H.Perrier) Goldblatt &amp; J.C.Manning, originaire de Madagascar et incluse désormais dans le genre Geissorhiza Goldblatt
 Les autres espèces sont originaires d'Afrique du Sud.
@@ -647,7 +667,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocosmia ×crocosmiiflora (Lemoine) N.E.Br. (Crocosmia aurea × Crocosmia pottsii) appelé aussi montbretia, cultivé à des fins décoratives est une plante envahissante.
 			Crocosmia sp.
